--- a/dataanalysis/data/predictions/1000/08220954_1003.xlsx
+++ b/dataanalysis/data/predictions/1000/08220954_1003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-22</t>
   </si>
   <si>
@@ -458,9 +461,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -818,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,19 +927,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.45</v>
@@ -957,7 +960,7 @@
         <v>16278</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -998,8 +1001,23 @@
       <c r="W2">
         <v>-0.35</v>
       </c>
+      <c r="X2">
+        <v>13.58</v>
+      </c>
+      <c r="Y2">
+        <v>12.49</v>
+      </c>
+      <c r="Z2">
+        <v>12.42</v>
+      </c>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1007,22 +1025,25 @@
       <c r="AG2">
         <v>-1.283264517784119</v>
       </c>
-      <c r="AH2" t="s">
-        <v>148</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300047</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1.98</v>
@@ -1040,7 +1061,7 @@
         <v>57147.29</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1081,8 +1102,23 @@
       <c r="W3">
         <v>0.05</v>
       </c>
+      <c r="X3">
+        <v>3.81</v>
+      </c>
+      <c r="Y3">
+        <v>19.88</v>
+      </c>
+      <c r="Z3">
+        <v>4.14</v>
+      </c>
       <c r="AC3" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1090,22 +1126,25 @@
       <c r="AG3">
         <v>3.030311584472656</v>
       </c>
-      <c r="AH3" t="s">
-        <v>148</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.03</v>
@@ -1123,7 +1162,7 @@
         <v>46553.47</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1164,8 +1203,23 @@
       <c r="W4">
         <v>-0.09</v>
       </c>
+      <c r="X4">
+        <v>-1.74</v>
+      </c>
+      <c r="Y4">
+        <v>65.28</v>
+      </c>
+      <c r="Z4">
+        <v>-3</v>
+      </c>
       <c r="AC4" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1173,22 +1227,25 @@
       <c r="AG4">
         <v>5.254667282104492</v>
       </c>
-      <c r="AH4" t="s">
-        <v>148</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20.06</v>
@@ -1206,7 +1263,7 @@
         <v>147160.1</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1247,8 +1304,23 @@
       <c r="W5">
         <v>4.73</v>
       </c>
+      <c r="X5">
+        <v>4.27</v>
+      </c>
+      <c r="Y5">
+        <v>9.41</v>
+      </c>
+      <c r="Z5">
+        <v>11.49</v>
+      </c>
       <c r="AC5" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1256,22 +1328,25 @@
       <c r="AG5">
         <v>0.3610533773899078</v>
       </c>
-      <c r="AH5" t="s">
-        <v>148</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300113</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -1289,7 +1364,7 @@
         <v>92061.11</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1330,8 +1405,23 @@
       <c r="W6">
         <v>0.31</v>
       </c>
+      <c r="X6">
+        <v>5.36</v>
+      </c>
+      <c r="Y6">
+        <v>29.86</v>
+      </c>
+      <c r="Z6">
+        <v>16.41</v>
+      </c>
       <c r="AC6" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1339,22 +1429,25 @@
       <c r="AG6">
         <v>6.941268444061279</v>
       </c>
-      <c r="AH6" t="s">
-        <v>148</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300153</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.23</v>
@@ -1372,7 +1465,7 @@
         <v>49680.69</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1413,8 +1506,23 @@
       <c r="W7">
         <v>-0.06</v>
       </c>
+      <c r="X7">
+        <v>-0.42</v>
+      </c>
+      <c r="Y7">
+        <v>48.33</v>
+      </c>
+      <c r="Z7">
+        <v>2.92</v>
+      </c>
       <c r="AC7" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1422,22 +1530,25 @@
       <c r="AG7">
         <v>7.468895435333252</v>
       </c>
-      <c r="AH7" t="s">
-        <v>148</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300184</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.17</v>
@@ -1455,7 +1566,7 @@
         <v>53678.79</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1496,8 +1607,23 @@
       <c r="W8">
         <v>0.02</v>
       </c>
+      <c r="X8">
+        <v>-2.42</v>
+      </c>
+      <c r="Y8">
+        <v>13.08</v>
+      </c>
+      <c r="Z8">
+        <v>7.83</v>
+      </c>
       <c r="AC8" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1505,22 +1631,25 @@
       <c r="AG8">
         <v>8.964582443237305</v>
       </c>
-      <c r="AH8" t="s">
-        <v>148</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.57</v>
@@ -1538,7 +1667,7 @@
         <v>159187.55</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>19</v>
@@ -1579,8 +1708,23 @@
       <c r="W9">
         <v>-0.43</v>
       </c>
+      <c r="X9">
+        <v>2.22</v>
+      </c>
+      <c r="Y9">
+        <v>29.32</v>
+      </c>
+      <c r="Z9">
+        <v>1.52</v>
+      </c>
       <c r="AC9" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1588,22 +1732,25 @@
       <c r="AG9">
         <v>6.925705432891846</v>
       </c>
-      <c r="AH9" t="s">
-        <v>148</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.42</v>
@@ -1621,7 +1768,7 @@
         <v>46447.7</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1662,8 +1809,23 @@
       <c r="W10">
         <v>0.04</v>
       </c>
+      <c r="X10">
+        <v>2.51</v>
+      </c>
+      <c r="Y10">
+        <v>26.96</v>
+      </c>
+      <c r="Z10">
+        <v>6.31</v>
+      </c>
       <c r="AC10" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1671,22 +1833,25 @@
       <c r="AG10">
         <v>2.917709589004517</v>
       </c>
-      <c r="AH10" t="s">
-        <v>148</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300323</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.66</v>
@@ -1704,7 +1869,7 @@
         <v>40981.45</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1745,8 +1910,23 @@
       <c r="W11">
         <v>-0.14</v>
       </c>
+      <c r="X11">
+        <v>0.41</v>
+      </c>
+      <c r="Y11">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>4.85</v>
+      </c>
       <c r="AC11" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1754,22 +1934,25 @@
       <c r="AG11">
         <v>1.422944068908691</v>
       </c>
-      <c r="AH11" t="s">
-        <v>148</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300324</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>6.29</v>
@@ -1787,7 +1970,7 @@
         <v>90172.03999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1828,8 +2011,23 @@
       <c r="W12">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X12">
+        <v>-2.36</v>
+      </c>
+      <c r="Y12">
+        <v>6.66</v>
+      </c>
+      <c r="Z12">
+        <v>6.56</v>
+      </c>
       <c r="AC12" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1837,22 +2035,25 @@
       <c r="AG12">
         <v>3.74333930015564</v>
       </c>
-      <c r="AH12" t="s">
-        <v>148</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300328</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.29</v>
@@ -1870,7 +2071,7 @@
         <v>93125.60000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1911,8 +2112,23 @@
       <c r="W13">
         <v>0.02</v>
       </c>
+      <c r="X13">
+        <v>5.37</v>
+      </c>
+      <c r="Y13">
+        <v>19.43</v>
+      </c>
+      <c r="Z13">
+        <v>8.119999999999999</v>
+      </c>
       <c r="AC13" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1920,22 +2136,25 @@
       <c r="AG13">
         <v>4.885367870330811</v>
       </c>
-      <c r="AH13" t="s">
-        <v>148</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300339</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.91</v>
@@ -1953,7 +2172,7 @@
         <v>148019.94</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1994,8 +2213,23 @@
       <c r="W14">
         <v>-0.17</v>
       </c>
+      <c r="X14">
+        <v>-1.03</v>
+      </c>
+      <c r="Y14">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>6.72</v>
+      </c>
       <c r="AC14" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2003,22 +2237,25 @@
       <c r="AG14">
         <v>2.461214542388916</v>
       </c>
-      <c r="AH14" t="s">
-        <v>148</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300352</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.32</v>
@@ -2036,7 +2273,7 @@
         <v>103555.38</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2077,8 +2314,23 @@
       <c r="W15">
         <v>-2.16</v>
       </c>
+      <c r="X15">
+        <v>-1.79</v>
+      </c>
+      <c r="Y15">
+        <v>7.37</v>
+      </c>
+      <c r="Z15">
+        <v>-1.34</v>
+      </c>
       <c r="AC15" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2086,22 +2338,25 @@
       <c r="AG15">
         <v>0.925304651260376</v>
       </c>
-      <c r="AH15" t="s">
-        <v>148</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300409</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3.97</v>
@@ -2119,7 +2374,7 @@
         <v>56508.65</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2160,8 +2415,23 @@
       <c r="W16">
         <v>0.13</v>
       </c>
+      <c r="X16">
+        <v>0.58</v>
+      </c>
+      <c r="Y16">
+        <v>23</v>
+      </c>
+      <c r="Z16">
+        <v>7.13</v>
+      </c>
       <c r="AC16" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2169,22 +2439,25 @@
       <c r="AG16">
         <v>6.158488273620605</v>
       </c>
-      <c r="AH16" t="s">
-        <v>148</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300499</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.71</v>
@@ -2202,7 +2475,7 @@
         <v>54960.92</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2243,8 +2516,23 @@
       <c r="W17">
         <v>-0.11</v>
       </c>
+      <c r="X17">
+        <v>3.92</v>
+      </c>
+      <c r="Y17">
+        <v>33.89</v>
+      </c>
+      <c r="Z17">
+        <v>5.31</v>
+      </c>
       <c r="AC17" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2252,22 +2540,25 @@
       <c r="AG17">
         <v>7.546884536743164</v>
       </c>
-      <c r="AH17" t="s">
-        <v>148</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300539</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6.26</v>
@@ -2285,7 +2576,7 @@
         <v>32940.56</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -2326,8 +2617,23 @@
       <c r="W18">
         <v>0.55</v>
       </c>
+      <c r="X18">
+        <v>-2.09</v>
+      </c>
+      <c r="Y18">
+        <v>32.21</v>
+      </c>
+      <c r="Z18">
+        <v>-3.65</v>
+      </c>
       <c r="AC18" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2335,22 +2641,25 @@
       <c r="AG18">
         <v>3.563718795776367</v>
       </c>
-      <c r="AH18" t="s">
-        <v>148</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300547</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.67</v>
@@ -2368,7 +2677,7 @@
         <v>32653.46</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2409,8 +2718,23 @@
       <c r="W19">
         <v>-0.2</v>
       </c>
+      <c r="X19">
+        <v>4.21</v>
+      </c>
+      <c r="Y19">
+        <v>52.19</v>
+      </c>
+      <c r="Z19">
+        <v>5.48</v>
+      </c>
       <c r="AC19" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2418,22 +2742,25 @@
       <c r="AG19">
         <v>0.5847387313842773</v>
       </c>
-      <c r="AH19" t="s">
-        <v>148</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300572</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>2.23</v>
@@ -2451,7 +2778,7 @@
         <v>11901.42</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2492,8 +2819,23 @@
       <c r="W20">
         <v>0.28</v>
       </c>
+      <c r="X20">
+        <v>-0.29</v>
+      </c>
+      <c r="Y20">
+        <v>28.66</v>
+      </c>
+      <c r="Z20">
+        <v>2.54</v>
+      </c>
       <c r="AC20" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2501,22 +2843,25 @@
       <c r="AG20">
         <v>1.22683572769165</v>
       </c>
-      <c r="AH20" t="s">
-        <v>148</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300579</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3.36</v>
@@ -2534,7 +2879,7 @@
         <v>24265.33</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2575,8 +2920,23 @@
       <c r="W21">
         <v>0.1</v>
       </c>
+      <c r="X21">
+        <v>0.46</v>
+      </c>
+      <c r="Y21">
+        <v>41.54</v>
+      </c>
+      <c r="Z21">
+        <v>1.47</v>
+      </c>
       <c r="AC21" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2584,22 +2944,25 @@
       <c r="AG21">
         <v>3.369446277618408</v>
       </c>
-      <c r="AH21" t="s">
-        <v>148</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300598</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.91</v>
@@ -2617,7 +2980,7 @@
         <v>53566.96</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2658,8 +3021,23 @@
       <c r="W22">
         <v>0.02</v>
       </c>
+      <c r="X22">
+        <v>-0.79</v>
+      </c>
+      <c r="Y22">
+        <v>65.98</v>
+      </c>
+      <c r="Z22">
+        <v>11.64</v>
+      </c>
       <c r="AC22" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2667,22 +3045,25 @@
       <c r="AG22">
         <v>4.570651054382324</v>
       </c>
-      <c r="AH22" t="s">
-        <v>148</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300602</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.16</v>
@@ -2700,7 +3081,7 @@
         <v>37942.63</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2741,8 +3122,23 @@
       <c r="W23">
         <v>-0.31</v>
       </c>
+      <c r="X23">
+        <v>2.2</v>
+      </c>
+      <c r="Y23">
+        <v>34.38</v>
+      </c>
+      <c r="Z23">
+        <v>3.62</v>
+      </c>
       <c r="AC23" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2750,22 +3146,25 @@
       <c r="AG23">
         <v>2.134535551071167</v>
       </c>
-      <c r="AH23" t="s">
-        <v>148</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300620</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-0.57</v>
@@ -2783,7 +3182,7 @@
         <v>39772.16</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -2824,8 +3223,23 @@
       <c r="W24">
         <v>-0.1</v>
       </c>
+      <c r="X24">
+        <v>3.86</v>
+      </c>
+      <c r="Y24">
+        <v>95.68000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>10.36</v>
+      </c>
       <c r="AC24" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2833,22 +3247,25 @@
       <c r="AG24">
         <v>-0.1170938462018967</v>
       </c>
-      <c r="AH24" t="s">
-        <v>148</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300631</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>4.15</v>
@@ -2866,7 +3283,7 @@
         <v>34354.94</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2907,8 +3324,23 @@
       <c r="W25">
         <v>0.5</v>
       </c>
+      <c r="X25">
+        <v>4.8</v>
+      </c>
+      <c r="Y25">
+        <v>37.41</v>
+      </c>
+      <c r="Z25">
+        <v>4.18</v>
+      </c>
       <c r="AC25" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2916,22 +3348,25 @@
       <c r="AG25">
         <v>0.5654083490371704</v>
       </c>
-      <c r="AH25" t="s">
-        <v>148</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300637</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.31</v>
@@ -2949,7 +3384,7 @@
         <v>15078.49</v>
       </c>
       <c r="J26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2990,8 +3425,23 @@
       <c r="W26">
         <v>-0.19</v>
       </c>
+      <c r="X26">
+        <v>-1.23</v>
+      </c>
+      <c r="Y26">
+        <v>16.52</v>
+      </c>
+      <c r="Z26">
+        <v>2.99</v>
+      </c>
       <c r="AC26" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2999,22 +3449,25 @@
       <c r="AG26">
         <v>4.445719718933105</v>
       </c>
-      <c r="AH26" t="s">
-        <v>148</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300642</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.78</v>
@@ -3032,7 +3485,7 @@
         <v>15094.34</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3073,8 +3526,23 @@
       <c r="W27">
         <v>0.03</v>
       </c>
+      <c r="X27">
+        <v>10.7</v>
+      </c>
+      <c r="Y27">
+        <v>29.8</v>
+      </c>
+      <c r="Z27">
+        <v>27.08</v>
+      </c>
       <c r="AC27" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3082,22 +3550,25 @@
       <c r="AG27">
         <v>2.686622142791748</v>
       </c>
-      <c r="AH27" t="s">
-        <v>148</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300686</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-5.4</v>
@@ -3115,7 +3586,7 @@
         <v>28437.37</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3156,8 +3627,23 @@
       <c r="W28">
         <v>-0.25</v>
       </c>
+      <c r="X28">
+        <v>-2.02</v>
+      </c>
+      <c r="Y28">
+        <v>13.24</v>
+      </c>
+      <c r="Z28">
+        <v>2.08</v>
+      </c>
       <c r="AC28" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3165,22 +3651,25 @@
       <c r="AG28">
         <v>3.42550253868103</v>
       </c>
-      <c r="AH28" t="s">
-        <v>148</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300701</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1.18</v>
@@ -3198,7 +3687,7 @@
         <v>20319.95</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3239,8 +3728,23 @@
       <c r="W29">
         <v>0.2</v>
       </c>
+      <c r="X29">
+        <v>1.51</v>
+      </c>
+      <c r="Y29">
+        <v>12.8</v>
+      </c>
+      <c r="Z29">
+        <v>-0.16</v>
+      </c>
       <c r="AC29" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3248,22 +3752,25 @@
       <c r="AG29">
         <v>0.8776369690895081</v>
       </c>
-      <c r="AH29" t="s">
-        <v>148</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300703</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-0.51</v>
@@ -3281,7 +3788,7 @@
         <v>11045.73</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -3322,8 +3829,23 @@
       <c r="W30">
         <v>-0.13</v>
       </c>
+      <c r="X30">
+        <v>-0.26</v>
+      </c>
+      <c r="Y30">
+        <v>35.6</v>
+      </c>
+      <c r="Z30">
+        <v>1.02</v>
+      </c>
       <c r="AC30" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3331,22 +3853,25 @@
       <c r="AG30">
         <v>1.715072870254517</v>
       </c>
-      <c r="AH30" t="s">
-        <v>148</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300724</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.36</v>
@@ -3364,7 +3889,7 @@
         <v>44163.09</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3405,8 +3930,23 @@
       <c r="W31">
         <v>-0.11</v>
       </c>
+      <c r="X31">
+        <v>8.65</v>
+      </c>
+      <c r="Y31">
+        <v>85.5</v>
+      </c>
+      <c r="Z31">
+        <v>12.12</v>
+      </c>
       <c r="AC31" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3414,22 +3954,25 @@
       <c r="AG31">
         <v>3.62378454208374</v>
       </c>
-      <c r="AH31" t="s">
-        <v>148</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300730</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>9.24</v>
@@ -3447,7 +3990,7 @@
         <v>105534.69</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3488,8 +4031,23 @@
       <c r="W32">
         <v>1.03</v>
       </c>
+      <c r="X32">
+        <v>-5.65</v>
+      </c>
+      <c r="Y32">
+        <v>24.55</v>
+      </c>
+      <c r="Z32">
+        <v>3.81</v>
+      </c>
       <c r="AC32" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3497,22 +4055,25 @@
       <c r="AG32">
         <v>0.8565856218338013</v>
       </c>
-      <c r="AH32" t="s">
-        <v>148</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300740</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-3.62</v>
@@ -3530,7 +4091,7 @@
         <v>34870.21</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3571,8 +4132,23 @@
       <c r="W33">
         <v>-0.77</v>
       </c>
+      <c r="X33">
+        <v>5.12</v>
+      </c>
+      <c r="Y33">
+        <v>22.18</v>
+      </c>
+      <c r="Z33">
+        <v>6.74</v>
+      </c>
       <c r="AC33" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3580,22 +4156,25 @@
       <c r="AG33">
         <v>3.646234750747681</v>
       </c>
-      <c r="AH33" t="s">
-        <v>148</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300748</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.57</v>
@@ -3613,7 +4192,7 @@
         <v>113702.44</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K34">
         <v>31</v>
@@ -3654,8 +4233,23 @@
       <c r="W34">
         <v>0.17</v>
       </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+      <c r="Y34">
+        <v>36.36</v>
+      </c>
+      <c r="Z34">
+        <v>19.88</v>
+      </c>
       <c r="AC34" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3663,22 +4257,25 @@
       <c r="AG34">
         <v>0.9226793050765991</v>
       </c>
-      <c r="AH34" t="s">
-        <v>148</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300752</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.49</v>
@@ -3696,7 +4293,7 @@
         <v>29851.29</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3737,8 +4334,23 @@
       <c r="W35">
         <v>0.37</v>
       </c>
+      <c r="X35">
+        <v>3.62</v>
+      </c>
+      <c r="Y35">
+        <v>27.86</v>
+      </c>
+      <c r="Z35">
+        <v>7.32</v>
+      </c>
       <c r="AC35" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3746,22 +4358,25 @@
       <c r="AG35">
         <v>3.018224954605103</v>
       </c>
-      <c r="AH35" t="s">
-        <v>148</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300767</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.56</v>
@@ -3779,7 +4394,7 @@
         <v>17124.15</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3820,8 +4435,23 @@
       <c r="W36">
         <v>0.01</v>
       </c>
+      <c r="X36">
+        <v>-1.26</v>
+      </c>
+      <c r="Y36">
+        <v>27.26</v>
+      </c>
+      <c r="Z36">
+        <v>27.09</v>
+      </c>
       <c r="AC36" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3829,22 +4459,25 @@
       <c r="AG36">
         <v>3.083214521408081</v>
       </c>
-      <c r="AH36" t="s">
-        <v>148</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300803</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.61</v>
@@ -3862,7 +4495,7 @@
         <v>349994.7</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3903,8 +4536,23 @@
       <c r="W37">
         <v>0.11</v>
       </c>
+      <c r="X37">
+        <v>3.48</v>
+      </c>
+      <c r="Y37">
+        <v>155.5</v>
+      </c>
+      <c r="Z37">
+        <v>14.8</v>
+      </c>
       <c r="AC37" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3912,22 +4560,25 @@
       <c r="AG37">
         <v>1.736844778060913</v>
       </c>
-      <c r="AH37" t="s">
-        <v>148</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300806</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>4.55</v>
@@ -3945,7 +4596,7 @@
         <v>28436.88</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3986,8 +4637,23 @@
       <c r="W38">
         <v>0.06</v>
       </c>
+      <c r="X38">
+        <v>-0.63</v>
+      </c>
+      <c r="Y38">
+        <v>25.66</v>
+      </c>
+      <c r="Z38">
+        <v>-2.99</v>
+      </c>
       <c r="AC38" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3995,22 +4661,25 @@
       <c r="AG38">
         <v>4.052603721618652</v>
       </c>
-      <c r="AH38" t="s">
-        <v>148</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300811</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.43</v>
@@ -4028,7 +4697,7 @@
         <v>19090.4</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4069,8 +4738,23 @@
       <c r="W39">
         <v>0.02</v>
       </c>
+      <c r="X39">
+        <v>6.14</v>
+      </c>
+      <c r="Y39">
+        <v>74.8</v>
+      </c>
+      <c r="Z39">
+        <v>6.69</v>
+      </c>
       <c r="AC39" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4078,22 +4762,25 @@
       <c r="AG39">
         <v>1.487441658973694</v>
       </c>
-      <c r="AH39" t="s">
-        <v>148</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300830</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1.35</v>
@@ -4111,7 +4798,7 @@
         <v>19613.2</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4152,8 +4839,23 @@
       <c r="W40">
         <v>0.01</v>
       </c>
+      <c r="X40">
+        <v>-2.9</v>
+      </c>
+      <c r="Y40">
+        <v>14.1</v>
+      </c>
+      <c r="Z40">
+        <v>-1.19</v>
+      </c>
       <c r="AC40" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4161,22 +4863,25 @@
       <c r="AG40">
         <v>3.347181558609009</v>
       </c>
-      <c r="AH40" t="s">
-        <v>148</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300843</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.5</v>
@@ -4194,7 +4899,7 @@
         <v>37889.89</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4235,8 +4940,23 @@
       <c r="W41">
         <v>0.49</v>
       </c>
+      <c r="X41">
+        <v>-3.78</v>
+      </c>
+      <c r="Y41">
+        <v>56.82</v>
+      </c>
+      <c r="Z41">
+        <v>12.47</v>
+      </c>
       <c r="AC41" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4244,22 +4964,25 @@
       <c r="AG41">
         <v>2.005522489547729</v>
       </c>
-      <c r="AH41" t="s">
-        <v>148</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300870</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>2.91</v>
@@ -4277,7 +5000,7 @@
         <v>52984.26</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4318,8 +5041,23 @@
       <c r="W42">
         <v>0.18</v>
       </c>
+      <c r="X42">
+        <v>-1.77</v>
+      </c>
+      <c r="Y42">
+        <v>270.85</v>
+      </c>
+      <c r="Z42">
+        <v>4.03</v>
+      </c>
       <c r="AC42" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4327,22 +5065,25 @@
       <c r="AG42">
         <v>6.979738712310791</v>
       </c>
-      <c r="AH42" t="s">
-        <v>148</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300902</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.44</v>
@@ -4360,7 +5101,7 @@
         <v>11940.14</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <v>8</v>
@@ -4401,8 +5142,23 @@
       <c r="W43">
         <v>-0.23</v>
       </c>
+      <c r="X43">
+        <v>-15.04</v>
+      </c>
+      <c r="Y43">
+        <v>30.77</v>
+      </c>
+      <c r="Z43">
+        <v>-2.6</v>
+      </c>
       <c r="AC43" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4410,22 +5166,25 @@
       <c r="AG43">
         <v>-0.6695484519004822</v>
       </c>
-      <c r="AH43" t="s">
-        <v>148</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301007</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.54</v>
@@ -4443,7 +5202,7 @@
         <v>6999.44</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4484,8 +5243,23 @@
       <c r="W44">
         <v>-0.04</v>
       </c>
+      <c r="X44">
+        <v>1.4</v>
+      </c>
+      <c r="Y44">
+        <v>48.44</v>
+      </c>
+      <c r="Z44">
+        <v>4.62</v>
+      </c>
       <c r="AC44" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4493,22 +5267,25 @@
       <c r="AG44">
         <v>3.772665739059448</v>
       </c>
-      <c r="AH44" t="s">
-        <v>148</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301018</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.17</v>
@@ -4526,7 +5303,7 @@
         <v>30479.56</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4567,8 +5344,23 @@
       <c r="W45">
         <v>0.31</v>
       </c>
+      <c r="X45">
+        <v>2.18</v>
+      </c>
+      <c r="Y45">
+        <v>74.7</v>
+      </c>
+      <c r="Z45">
+        <v>13.15</v>
+      </c>
       <c r="AC45" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4576,22 +5368,25 @@
       <c r="AG45">
         <v>7.30165958404541</v>
       </c>
-      <c r="AH45" t="s">
-        <v>148</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301041</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.1</v>
@@ -4609,7 +5404,7 @@
         <v>14627.66</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4650,8 +5445,23 @@
       <c r="W46">
         <v>-0.09</v>
       </c>
+      <c r="X46">
+        <v>4.1</v>
+      </c>
+      <c r="Y46">
+        <v>33</v>
+      </c>
+      <c r="Z46">
+        <v>5.16</v>
+      </c>
       <c r="AC46" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4659,22 +5469,25 @@
       <c r="AG46">
         <v>3.50666618347168</v>
       </c>
-      <c r="AH46" t="s">
-        <v>148</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301052</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-1.46</v>
@@ -4692,7 +5505,7 @@
         <v>18931.65</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4733,8 +5546,23 @@
       <c r="W47">
         <v>-0.31</v>
       </c>
+      <c r="X47">
+        <v>1.05</v>
+      </c>
+      <c r="Y47">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>9.49</v>
+      </c>
       <c r="AC47" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4742,22 +5570,25 @@
       <c r="AG47">
         <v>-7.545714378356934</v>
       </c>
-      <c r="AH47" t="s">
-        <v>148</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301095</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>4.33</v>
@@ -4775,7 +5606,7 @@
         <v>30580.54</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>18</v>
@@ -4816,8 +5647,23 @@
       <c r="W48">
         <v>0.17</v>
       </c>
+      <c r="X48">
+        <v>-2.8</v>
+      </c>
+      <c r="Y48">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>9.279999999999999</v>
+      </c>
       <c r="AC48" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4825,22 +5671,25 @@
       <c r="AG48">
         <v>2.736404657363892</v>
       </c>
-      <c r="AH48" t="s">
-        <v>148</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301123</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-0.09</v>
@@ -4858,7 +5707,7 @@
         <v>13690.45</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>14</v>
@@ -4899,8 +5748,23 @@
       <c r="W49">
         <v>-0.05</v>
       </c>
+      <c r="X49">
+        <v>-0.46</v>
+      </c>
+      <c r="Y49">
+        <v>43.31</v>
+      </c>
+      <c r="Z49">
+        <v>0.74</v>
+      </c>
       <c r="AC49" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4908,22 +5772,25 @@
       <c r="AG49">
         <v>2.329776763916016</v>
       </c>
-      <c r="AH49" t="s">
-        <v>148</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301128</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>5.79</v>
@@ -4941,7 +5808,7 @@
         <v>57446.59</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K50">
         <v>8</v>
@@ -4982,8 +5849,23 @@
       <c r="W50">
         <v>0.09</v>
       </c>
+      <c r="X50">
+        <v>20</v>
+      </c>
+      <c r="Y50">
+        <v>117.98</v>
+      </c>
+      <c r="Z50">
+        <v>19.85</v>
+      </c>
       <c r="AC50" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4991,22 +5873,25 @@
       <c r="AG50">
         <v>4.97636890411377</v>
       </c>
-      <c r="AH50" t="s">
-        <v>148</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301165</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>1.1</v>
@@ -5024,7 +5909,7 @@
         <v>31455.34</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -5065,8 +5950,23 @@
       <c r="W51">
         <v>-0.13</v>
       </c>
+      <c r="X51">
+        <v>1.03</v>
+      </c>
+      <c r="Y51">
+        <v>98</v>
+      </c>
+      <c r="Z51">
+        <v>19.32</v>
+      </c>
       <c r="AC51" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5074,22 +5974,25 @@
       <c r="AG51">
         <v>4.999766826629639</v>
       </c>
-      <c r="AH51" t="s">
-        <v>148</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301183</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.65</v>
@@ -5107,7 +6010,7 @@
         <v>10677.96</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5148,8 +6051,23 @@
       <c r="W52">
         <v>-0.02</v>
       </c>
+      <c r="X52">
+        <v>3.82</v>
+      </c>
+      <c r="Y52">
+        <v>79.2</v>
+      </c>
+      <c r="Z52">
+        <v>4.07</v>
+      </c>
       <c r="AC52" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5157,22 +6075,25 @@
       <c r="AG52">
         <v>5.229045867919922</v>
       </c>
-      <c r="AH52" t="s">
-        <v>148</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301217</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>11.22</v>
@@ -5190,7 +6111,7 @@
         <v>121125.26</v>
       </c>
       <c r="J53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K53">
         <v>35</v>
@@ -5231,8 +6152,23 @@
       <c r="W53">
         <v>0.44</v>
       </c>
+      <c r="X53">
+        <v>4.98</v>
+      </c>
+      <c r="Y53">
+        <v>36.4</v>
+      </c>
+      <c r="Z53">
+        <v>7.06</v>
+      </c>
       <c r="AC53" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5240,22 +6176,25 @@
       <c r="AG53">
         <v>0.973675012588501</v>
       </c>
-      <c r="AH53" t="s">
-        <v>148</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301219</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.41</v>
@@ -5273,7 +6212,7 @@
         <v>36956.06</v>
       </c>
       <c r="J54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -5314,8 +6253,23 @@
       <c r="W54">
         <v>-0.05</v>
       </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>69.33</v>
+      </c>
+      <c r="Z54">
+        <v>2.44</v>
+      </c>
       <c r="AC54" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5323,22 +6277,25 @@
       <c r="AG54">
         <v>3.143194913864136</v>
       </c>
-      <c r="AH54" t="s">
-        <v>148</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301321</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>0.88</v>
@@ -5356,7 +6313,7 @@
         <v>16527.84</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5397,8 +6354,23 @@
       <c r="W55">
         <v>-0.08</v>
       </c>
+      <c r="X55">
+        <v>-2.14</v>
+      </c>
+      <c r="Y55">
+        <v>18.24</v>
+      </c>
+      <c r="Z55">
+        <v>-0.55</v>
+      </c>
       <c r="AC55" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5406,22 +6378,25 @@
       <c r="AG55">
         <v>2.826529979705811</v>
       </c>
-      <c r="AH55" t="s">
-        <v>148</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301377</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>12.69</v>
@@ -5439,7 +6414,7 @@
         <v>28269.06</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -5480,8 +6455,23 @@
       <c r="W56">
         <v>0.97</v>
       </c>
+      <c r="X56">
+        <v>7.7</v>
+      </c>
+      <c r="Y56">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>18.4</v>
+      </c>
       <c r="AC56" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5489,22 +6479,25 @@
       <c r="AG56">
         <v>1.834750890731812</v>
       </c>
-      <c r="AH56" t="s">
-        <v>148</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301413</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-0.16</v>
@@ -5522,7 +6515,7 @@
         <v>9728.09</v>
       </c>
       <c r="J57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5563,8 +6556,23 @@
       <c r="W57">
         <v>-0.14</v>
       </c>
+      <c r="X57">
+        <v>10.4</v>
+      </c>
+      <c r="Y57">
+        <v>130.58</v>
+      </c>
+      <c r="Z57">
+        <v>16.13</v>
+      </c>
       <c r="AC57" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5572,22 +6580,25 @@
       <c r="AG57">
         <v>4.231367111206055</v>
       </c>
-      <c r="AH57" t="s">
-        <v>148</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301489</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-0.02</v>
@@ -5605,7 +6616,7 @@
         <v>25106.98</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58">
         <v>17</v>
@@ -5646,8 +6657,23 @@
       <c r="W58">
         <v>-0.08</v>
       </c>
+      <c r="X58">
+        <v>-1.08</v>
+      </c>
+      <c r="Y58">
+        <v>191.03</v>
+      </c>
+      <c r="Z58">
+        <v>13.32</v>
+      </c>
       <c r="AC58" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5655,22 +6681,25 @@
       <c r="AG58">
         <v>4.109302997589111</v>
       </c>
-      <c r="AH58" t="s">
-        <v>148</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301526</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>4.65</v>
@@ -5688,7 +6717,7 @@
         <v>48025.35</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5729,8 +6758,23 @@
       <c r="W59">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X59">
+        <v>3.09</v>
+      </c>
+      <c r="Y59">
+        <v>7.05</v>
+      </c>
+      <c r="Z59">
+        <v>8.130000000000001</v>
+      </c>
       <c r="AC59" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5738,22 +6782,25 @@
       <c r="AG59">
         <v>1.188922643661499</v>
       </c>
-      <c r="AH59" t="s">
-        <v>148</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301626</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1.05</v>
@@ -5771,7 +6818,7 @@
         <v>13451.06</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -5812,8 +6859,23 @@
       <c r="W60">
         <v>0.34</v>
       </c>
+      <c r="X60">
+        <v>-6.24</v>
+      </c>
+      <c r="Y60">
+        <v>167.54</v>
+      </c>
+      <c r="Z60">
+        <v>-4.64</v>
+      </c>
       <c r="AC60" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5821,22 +6883,25 @@
       <c r="AG60">
         <v>2.27492094039917</v>
       </c>
-      <c r="AH60" t="s">
-        <v>148</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688035</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-0.14</v>
@@ -5854,7 +6919,7 @@
         <v>12893.65</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5895,8 +6960,23 @@
       <c r="W61">
         <v>-0.27</v>
       </c>
+      <c r="X61">
+        <v>-1.3</v>
+      </c>
+      <c r="Y61">
+        <v>58.8</v>
+      </c>
+      <c r="Z61">
+        <v>4.68</v>
+      </c>
       <c r="AC61" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5904,22 +6984,25 @@
       <c r="AG61">
         <v>2.018201589584351</v>
       </c>
-      <c r="AH61" t="s">
-        <v>148</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688098</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>0.92</v>
@@ -5937,7 +7020,7 @@
         <v>15633.89</v>
       </c>
       <c r="J62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -5978,8 +7061,23 @@
       <c r="W62">
         <v>-0.33</v>
       </c>
+      <c r="X62">
+        <v>13.81</v>
+      </c>
+      <c r="Y62">
+        <v>15</v>
+      </c>
+      <c r="Z62">
+        <v>14.33</v>
+      </c>
       <c r="AC62" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5987,22 +7085,25 @@
       <c r="AG62">
         <v>-5.326977252960205</v>
       </c>
-      <c r="AH62" t="s">
-        <v>148</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688167</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>3.2</v>
@@ -6020,7 +7121,7 @@
         <v>20128.91</v>
       </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K63">
         <v>13</v>
@@ -6061,8 +7162,23 @@
       <c r="W63">
         <v>0.05</v>
       </c>
+      <c r="X63">
+        <v>7.53</v>
+      </c>
+      <c r="Y63">
+        <v>148.83</v>
+      </c>
+      <c r="Z63">
+        <v>18.94</v>
+      </c>
       <c r="AC63" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6070,22 +7186,25 @@
       <c r="AG63">
         <v>0.5589834451675415</v>
       </c>
-      <c r="AH63" t="s">
-        <v>148</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688195</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.15</v>
@@ -6103,7 +7222,7 @@
         <v>15500.23</v>
       </c>
       <c r="J64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K64">
         <v>5</v>
@@ -6144,8 +7263,23 @@
       <c r="W64">
         <v>-0.19</v>
       </c>
+      <c r="X64">
+        <v>2.94</v>
+      </c>
+      <c r="Y64">
+        <v>66.87</v>
+      </c>
+      <c r="Z64">
+        <v>7.7</v>
+      </c>
       <c r="AC64" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6153,22 +7287,25 @@
       <c r="AG64">
         <v>0.2456009089946747</v>
       </c>
-      <c r="AH64" t="s">
-        <v>148</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688205</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.5600000000000001</v>
@@ -6186,7 +7323,7 @@
         <v>22478.94</v>
       </c>
       <c r="J65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6227,8 +7364,23 @@
       <c r="W65">
         <v>0.1</v>
       </c>
+      <c r="X65">
+        <v>10.11</v>
+      </c>
+      <c r="Y65">
+        <v>108.52</v>
+      </c>
+      <c r="Z65">
+        <v>25.17</v>
+      </c>
       <c r="AC65" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6236,22 +7388,25 @@
       <c r="AG65">
         <v>7.723361492156982</v>
       </c>
-      <c r="AH65" t="s">
-        <v>148</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688372</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>6.88</v>
@@ -6269,7 +7424,7 @@
         <v>55541.25</v>
       </c>
       <c r="J66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6310,8 +7465,23 @@
       <c r="W66">
         <v>0.44</v>
       </c>
+      <c r="X66">
+        <v>-1.17</v>
+      </c>
+      <c r="Y66">
+        <v>82.88</v>
+      </c>
+      <c r="Z66">
+        <v>1.77</v>
+      </c>
       <c r="AC66" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6319,22 +7489,25 @@
       <c r="AG66">
         <v>-6.00627326965332</v>
       </c>
-      <c r="AH66" t="s">
-        <v>148</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688381</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>1.77</v>
@@ -6352,7 +7525,7 @@
         <v>12732.89</v>
       </c>
       <c r="J67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6393,8 +7566,23 @@
       <c r="W67">
         <v>-0.01</v>
       </c>
+      <c r="X67">
+        <v>-4.29</v>
+      </c>
+      <c r="Y67">
+        <v>28.5</v>
+      </c>
+      <c r="Z67">
+        <v>0.99</v>
+      </c>
       <c r="AC67" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6402,22 +7590,25 @@
       <c r="AG67">
         <v>4.952021598815918</v>
       </c>
-      <c r="AH67" t="s">
-        <v>148</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688502</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>2.55</v>
@@ -6435,7 +7626,7 @@
         <v>13559.37</v>
       </c>
       <c r="J68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K68">
         <v>20</v>
@@ -6476,8 +7667,23 @@
       <c r="W68">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X68">
+        <v>2.97</v>
+      </c>
+      <c r="Y68">
+        <v>465</v>
+      </c>
+      <c r="Z68">
+        <v>11.82</v>
+      </c>
       <c r="AC68" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6485,22 +7691,25 @@
       <c r="AG68">
         <v>5.143468856811523</v>
       </c>
-      <c r="AH68" t="s">
-        <v>148</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688584</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>2.15</v>
@@ -6518,7 +7727,7 @@
         <v>14165.32</v>
       </c>
       <c r="J69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K69">
         <v>8</v>
@@ -6559,8 +7768,23 @@
       <c r="W69">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X69">
+        <v>-2.03</v>
+      </c>
+      <c r="Y69">
+        <v>27.72</v>
+      </c>
+      <c r="Z69">
+        <v>-0.93</v>
+      </c>
       <c r="AC69" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6568,22 +7792,25 @@
       <c r="AG69">
         <v>2.522108316421509</v>
       </c>
-      <c r="AH69" t="s">
-        <v>148</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688603</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>2.82</v>
@@ -6601,7 +7828,7 @@
         <v>13208.54</v>
       </c>
       <c r="J70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K70">
         <v>8</v>
@@ -6642,8 +7869,23 @@
       <c r="W70">
         <v>0.25</v>
       </c>
+      <c r="X70">
+        <v>-1.12</v>
+      </c>
+      <c r="Y70">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="Z70">
+        <v>0.12</v>
+      </c>
       <c r="AC70" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6651,22 +7893,25 @@
       <c r="AG70">
         <v>0.4056476354598999</v>
       </c>
-      <c r="AH70" t="s">
-        <v>148</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688709</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>3.04</v>
@@ -6684,7 +7929,7 @@
         <v>20743.16</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6725,8 +7970,23 @@
       <c r="W71">
         <v>0.1</v>
       </c>
+      <c r="X71">
+        <v>0.96</v>
+      </c>
+      <c r="Y71">
+        <v>49.99</v>
+      </c>
+      <c r="Z71">
+        <v>23.77</v>
+      </c>
       <c r="AC71" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6734,22 +7994,25 @@
       <c r="AG71">
         <v>2.875320196151733</v>
       </c>
-      <c r="AH71" t="s">
-        <v>148</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688798</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>1.09</v>
@@ -6767,7 +8030,7 @@
         <v>24750.76</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -6808,8 +8071,23 @@
       <c r="W72">
         <v>-0.03</v>
       </c>
+      <c r="X72">
+        <v>1.96</v>
+      </c>
+      <c r="Y72">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>5.8</v>
+      </c>
       <c r="AC72" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6817,8 +8095,11 @@
       <c r="AG72">
         <v>2.194036722183228</v>
       </c>
-      <c r="AH72" t="s">
-        <v>148</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
